--- a/Pivot table and Chartss...xlsx
+++ b/Pivot table and Chartss...xlsx
@@ -8,23 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Excel assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D592463-AA67-4628-8EF5-033547257082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C0552A-28B1-4B4B-A8E9-7E90AF9607D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{16D663F4-CCBA-4FB1-A569-D17033C84236}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{16D663F4-CCBA-4FB1-A569-D17033C84236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
+    <sheet name="sheet 5" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$E$50:$E$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$E$50:$E$70</definedName>
+    <definedName name="Slicer_Product">#N/A</definedName>
+    <definedName name="Slicer_Product1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -44,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="65">
   <si>
     <t>What is the purpose of a PivotTable in Excel?</t>
   </si>
@@ -213,6 +227,33 @@
   <si>
     <t>6-Use a Slicer to filter data by Product and observe changes in sales.</t>
   </si>
+  <si>
+    <t>7-Why are dashboards are  important for decision-makingin business analysis?</t>
+  </si>
+  <si>
+    <t>answer-Dashboards are important for decision making in business analysis because it visualize key matrics and performance indicators also facilates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data driven decisions,identify trends and pattern,enhance collaboration and it also saves a lot of time.</t>
+  </si>
+  <si>
+    <t>8-Create a dashboard that includes:</t>
+  </si>
+  <si>
+    <t>i-sales by region(pivot tbles+chart)</t>
+  </si>
+  <si>
+    <t>ii-product filter(slicer)</t>
+  </si>
+  <si>
+    <t>iii-monthly  trend(line chart)</t>
+  </si>
+  <si>
+    <t>answer8</t>
+  </si>
+  <si>
+    <t>ANSWER OF i AND ii &amp;iii IS ON THE SHEET 4.</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -309,11 +350,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,11 +403,59 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -542,9 +657,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$4:$A$10</c:f>
+              <c:f>Sheet3!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Jan</c:v>
                 </c:pt>
@@ -560,35 +675,29 @@
                 <c:pt idx="4">
                   <c:v>May</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$B$10</c:f>
+              <c:f>Sheet3!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1281</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1032</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>958</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1155</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1117</c:v>
+                  <c:v>789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +928,991 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pivot table and Chartss...xlsx]Sheet4!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6146-4F01-BBBD-7283437F60B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="23898064"/>
+        <c:axId val="23895184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="23898064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23895184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23895184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23898064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>Jan</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Feb</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Mar</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Apr</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>May</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Jun</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>1281</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1032</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>958</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1155</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1286</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1117</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F954-4433-B662-BA761FE1B270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="33680016"/>
+        <c:axId val="33680496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="33680016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33680496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33680496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33680016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1009,6 +2102,1025 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1400,6 +3512,241 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Product">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D3E35B-1F2A-DF0F-6004-114997B4B773}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4320540" y="99061"/>
+              <a:ext cx="1828800" cy="1790700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B9A3A5-E2B1-92F7-298B-5484FBEE97AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Product 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4CBFE5-8C44-9B2E-6B3C-41BE39ADC04C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Product 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6164580" y="510541"/>
+              <a:ext cx="1828800" cy="1600200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953CE245-AA9E-4181-97D0-F0B2BECCACF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1443,7 +3790,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Mangoes"/>
+        <s v="Oranges"/>
+        <s v="Apples"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Sales" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="53" maxValue="497" count="19">
@@ -1870,7 +4221,464 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="700514067"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anant" refreshedDate="46010.909507523145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{A0D063F0-9E7A-424E-B53D-8EE6C601FB31}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B50:F70" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Date" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-07-01T00:00:00" count="20">
+        <d v="2024-04-24T07:34:44"/>
+        <d v="2024-06-20T11:22:06"/>
+        <d v="2024-01-10T12:37:54"/>
+        <d v="2024-01-20T01:15:47"/>
+        <d v="2024-02-27T03:47:22"/>
+        <d v="2024-03-17T05:03:09"/>
+        <d v="2024-04-05T06:18:57"/>
+        <d v="2024-05-13T08:50:32"/>
+        <d v="2024-05-22T21:28:25"/>
+        <d v="2024-06-30T00:00:00"/>
+        <d v="2024-01-01T00:00:00"/>
+        <d v="2024-01-29T13:53:41"/>
+        <d v="2024-02-08T02:31:35"/>
+        <d v="2024-02-17T15:09:28"/>
+        <d v="2024-03-07T16:25:16"/>
+        <d v="2024-03-26T17:41:03"/>
+        <d v="2024-04-14T18:56:51"/>
+        <d v="2024-05-03T20:12:38"/>
+        <d v="2024-06-01T10:06:19"/>
+        <d v="2024-06-10T22:44:13"/>
+      </sharedItems>
+      <fieldGroup par="6"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="4">
+        <s v="East"/>
+        <s v="North"/>
+        <s v="South"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Mangoes"/>
+        <s v="Oranges"/>
+        <s v="Apples"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="53" maxValue="497"/>
+    </cacheField>
+    <cacheField name="Quantity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="97"/>
+    </cacheField>
+    <cacheField name="Days (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="days" startDate="2024-01-01T00:00:00" endDate="2024-07-01T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;01-01-2024"/>
+          <s v="01-Jan"/>
+          <s v="02-Jan"/>
+          <s v="03-Jan"/>
+          <s v="04-Jan"/>
+          <s v="05-Jan"/>
+          <s v="06-Jan"/>
+          <s v="07-Jan"/>
+          <s v="08-Jan"/>
+          <s v="09-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="01-Feb"/>
+          <s v="02-Feb"/>
+          <s v="03-Feb"/>
+          <s v="04-Feb"/>
+          <s v="05-Feb"/>
+          <s v="06-Feb"/>
+          <s v="07-Feb"/>
+          <s v="08-Feb"/>
+          <s v="09-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="01-Mar"/>
+          <s v="02-Mar"/>
+          <s v="03-Mar"/>
+          <s v="04-Mar"/>
+          <s v="05-Mar"/>
+          <s v="06-Mar"/>
+          <s v="07-Mar"/>
+          <s v="08-Mar"/>
+          <s v="09-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="01-Apr"/>
+          <s v="02-Apr"/>
+          <s v="03-Apr"/>
+          <s v="04-Apr"/>
+          <s v="05-Apr"/>
+          <s v="06-Apr"/>
+          <s v="07-Apr"/>
+          <s v="08-Apr"/>
+          <s v="09-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="01-May"/>
+          <s v="02-May"/>
+          <s v="03-May"/>
+          <s v="04-May"/>
+          <s v="05-May"/>
+          <s v="06-May"/>
+          <s v="07-May"/>
+          <s v="08-May"/>
+          <s v="09-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="01-Jun"/>
+          <s v="02-Jun"/>
+          <s v="03-Jun"/>
+          <s v="04-Jun"/>
+          <s v="05-Jun"/>
+          <s v="06-Jun"/>
+          <s v="07-Jun"/>
+          <s v="08-Jun"/>
+          <s v="09-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="01-Jul"/>
+          <s v="02-Jul"/>
+          <s v="03-Jul"/>
+          <s v="04-Jul"/>
+          <s v="05-Jul"/>
+          <s v="06-Jul"/>
+          <s v="07-Jul"/>
+          <s v="08-Jul"/>
+          <s v="09-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="01-Aug"/>
+          <s v="02-Aug"/>
+          <s v="03-Aug"/>
+          <s v="04-Aug"/>
+          <s v="05-Aug"/>
+          <s v="06-Aug"/>
+          <s v="07-Aug"/>
+          <s v="08-Aug"/>
+          <s v="09-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="01-Sep"/>
+          <s v="02-Sep"/>
+          <s v="03-Sep"/>
+          <s v="04-Sep"/>
+          <s v="05-Sep"/>
+          <s v="06-Sep"/>
+          <s v="07-Sep"/>
+          <s v="08-Sep"/>
+          <s v="09-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="01-Oct"/>
+          <s v="02-Oct"/>
+          <s v="03-Oct"/>
+          <s v="04-Oct"/>
+          <s v="05-Oct"/>
+          <s v="06-Oct"/>
+          <s v="07-Oct"/>
+          <s v="08-Oct"/>
+          <s v="09-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="01-Nov"/>
+          <s v="02-Nov"/>
+          <s v="03-Nov"/>
+          <s v="04-Nov"/>
+          <s v="05-Nov"/>
+          <s v="06-Nov"/>
+          <s v="07-Nov"/>
+          <s v="08-Nov"/>
+          <s v="09-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="01-Dec"/>
+          <s v="02-Dec"/>
+          <s v="03-Dec"/>
+          <s v="04-Dec"/>
+          <s v="05-Dec"/>
+          <s v="06-Dec"/>
+          <s v="07-Dec"/>
+          <s v="08-Dec"/>
+          <s v="09-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;01-07-2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Months (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2024-01-01T00:00:00" endDate="2024-07-01T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;01-01-2024"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;01-07-2024"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1573837361"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1881,148 +4689,293 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="93"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="Oranges"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="56"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="76"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <s v="Apples"/>
+    <x v="2"/>
     <x v="3"/>
     <n v="37"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="4"/>
     <n v="50"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <s v="Oranges"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="52"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
-    <s v="Apples"/>
+    <x v="2"/>
     <x v="6"/>
     <n v="29"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
-    <s v="Apples"/>
+    <x v="2"/>
     <x v="7"/>
     <n v="44"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="63"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
-    <s v="Oranges"/>
+    <x v="1"/>
     <x v="7"/>
     <n v="79"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="23"/>
   </r>
   <r>
     <x v="11"/>
     <x v="0"/>
-    <s v="Oranges"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="97"/>
   </r>
   <r>
     <x v="12"/>
     <x v="2"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="97"/>
   </r>
   <r>
     <x v="13"/>
     <x v="0"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="92"/>
   </r>
   <r>
     <x v="14"/>
     <x v="1"/>
-    <s v="Oranges"/>
+    <x v="1"/>
     <x v="13"/>
     <n v="71"/>
   </r>
   <r>
     <x v="15"/>
     <x v="1"/>
-    <s v="Mangoes"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="81"/>
   </r>
   <r>
     <x v="16"/>
     <x v="0"/>
-    <s v="Oranges"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="45"/>
   </r>
   <r>
     <x v="17"/>
     <x v="0"/>
-    <s v="Apples"/>
+    <x v="2"/>
     <x v="16"/>
     <n v="33"/>
   </r>
   <r>
     <x v="18"/>
     <x v="3"/>
-    <s v="Oranges"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="35"/>
   </r>
   <r>
     <x v="19"/>
     <x v="1"/>
-    <s v="Apples"/>
+    <x v="2"/>
     <x v="18"/>
     <n v="45"/>
   </r>
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="467"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="347"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="348"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="247"/>
+    <n v="76"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="417"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="205"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="497"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="409"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="319"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="456"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="230"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="281"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="334"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="441"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="441"/>
+    <n v="79"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="483"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="380"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="53"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="398"/>
+    <n v="33"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FD3FD74-669C-4189-8B41-E848379E9355}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FD3FD74-669C-4189-8B41-E848379E9355}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="22" showAll="0">
@@ -2517,8 +5470,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78D933F3-780B-4970-A482-1F158AA6AF30}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78D933F3-780B-4970-A482-1F158AA6AF30}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
       <items count="21">
@@ -2542,6 +5495,494 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="6"/>
+    <field x="5"/>
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05E3C82B-790D-4844-BBF5-84A5D42CCE67}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="D17:E24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" numFmtId="22" showAll="0">
+      <items count="21">
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2976,6 +6417,505 @@
   <dataFields count="1">
     <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{551320C6-9EF1-45FD-87CC-2D01ACA61601}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="22" showAll="0">
+      <items count="21">
+        <item x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -2997,6 +6937,52 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product" xr10:uid="{3714F369-F9DF-4E17-BBB6-E8D35EE04285}" sourceName="Product">
+  <pivotTables>
+    <pivotTable tabId="5" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="700514067">
+      <items count="3">
+        <i x="2"/>
+        <i x="0" s="1"/>
+        <i x="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product1" xr10:uid="{158D9438-EB8A-477A-B3AF-A36FDDF8B6D4}" sourceName="Product">
+  <pivotTables>
+    <pivotTable tabId="6" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1573837361">
+      <items count="3">
+        <i x="2"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Product" xr10:uid="{51DF127C-6FE3-41D7-A3B8-0429B2CCDC8B}" cache="Slicer_Product" caption="Product" rowHeight="247650"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Product 1" xr10:uid="{17136275-E583-4755-BA67-EF58C4E7F322}" cache="Slicer_Product1" caption="Product" rowHeight="247650"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3343,7 +7329,7 @@
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>467</v>
       </c>
     </row>
@@ -3351,7 +7337,7 @@
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>347</v>
       </c>
     </row>
@@ -3359,7 +7345,7 @@
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>2518</v>
       </c>
     </row>
@@ -3367,7 +7353,7 @@
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>3497</v>
       </c>
     </row>
@@ -3375,7 +7361,7 @@
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>6829</v>
       </c>
     </row>
@@ -3386,10 +7372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60088118-92A8-47F6-8E4B-5F6A2E1C837C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3416,7 +7402,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="9">
-        <v>1281</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3424,7 +7410,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="9">
-        <v>1032</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3432,7 +7418,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="9">
-        <v>958</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3440,7 +7426,7 @@
         <v>49</v>
       </c>
       <c r="B7" s="9">
-        <v>1155</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3448,37 +7434,213 @@
         <v>50</v>
       </c>
       <c r="B8" s="9">
-        <v>1286</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="9">
-        <v>6829</v>
+        <v>2521</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DEF358-905A-48EB-A41E-406990EA9F4C}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9">
+        <v>467</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="9">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="9">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9">
+        <v>6829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308E035-DF67-4CC3-8682-8F5C77BFD62B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1887BECD-3563-4CB1-8FB9-931F36CF321F}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4359,17 +8521,202 @@
         <v>52</v>
       </c>
     </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+    </row>
   </sheetData>
   <autoFilter ref="E50:E70" xr:uid="{1887BECD-3563-4CB1-8FB9-931F36CF321F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B51:F70">
     <sortCondition ref="C50:C70"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="C86:F86"/>
+  </mergeCells>
   <conditionalFormatting sqref="E21:E40">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>400</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E70">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E70">
+  <conditionalFormatting sqref="E79:E84 E87:E98">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
